--- a/biology/Zoologie/Amphilophus_alfari/Amphilophus_alfari.xlsx
+++ b/biology/Zoologie/Amphilophus_alfari/Amphilophus_alfari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphilophus alfari, communément appelé Cichlidé pastel, est une espèce de poissons originaire de la côte atlantique de l'est du Honduras, du Nicaragua et du Costa Rica, en Amérique du Sud, appartenant à la famille des Cichlidés. Il atteint généralement de 20 cm à 22 cm de longueur.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cichlidé pastel est allongé et comprimé latéralement. Sa coloration et sa morphologie diffèrent selon la région d'origine[1]. Deux formes d'alfari existent, l'une à l'est du côté atlantique, l'autre du côté pacifique (forme haute et allongée), chacune ayant une variation de couleur allant du vert olive au gris[1]. Les couleurs sont plus claires au niveau du ventre, et tendent vers le rose au niveau de la gorge, de la poitrine et des nageoires caudales. Le flanc est bariolé de brun et tacheté. Les joues ont des vermicules bleus. Des taches bleues peuvent se trouver sur les nageoires dorsales, anales et caudales. Les pointes de la dorsale sont rouges.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cichlidé pastel est allongé et comprimé latéralement. Sa coloration et sa morphologie diffèrent selon la région d'origine. Deux formes d'alfari existent, l'une à l'est du côté atlantique, l'autre du côté pacifique (forme haute et allongée), chacune ayant une variation de couleur allant du vert olive au gris. Les couleurs sont plus claires au niveau du ventre, et tendent vers le rose au niveau de la gorge, de la poitrine et des nageoires caudales. Le flanc est bariolé de brun et tacheté. Les joues ont des vermicules bleus. Des taches bleues peuvent se trouver sur les nageoires dorsales, anales et caudales. Les pointes de la dorsale sont rouges.
 Le dimorphisme sexuel est subtil chez ce cichlidé. Le mâle est généralement un peu plus grand et la femelle peut être dotée d'une tache noire et irrégulière sur la dorsale, parfois difficile à percevoir.
-Le Cichlidé pastel est un pondeur sur substrat découvert. La femelle est mature lorsqu'elle atteint une taille d'environ 10 cm. Les œufs éclosent quatre jours après la ponte et les alevins sont déposés dans des cuvettes creusées par les parents. Ces derniers s'occupent des alevins pendant sept jours, puis ceux-ci peuvent nager librement. Les parents surveillent les juvéniles et les défendent à ce stade[2].
+Le Cichlidé pastel est un pondeur sur substrat découvert. La femelle est mature lorsqu'elle atteint une taille d'environ 10 cm. Les œufs éclosent quatre jours après la ponte et les alevins sont déposés dans des cuvettes creusées par les parents. Ces derniers s'occupent des alevins pendant sept jours, puis ceux-ci peuvent nager librement. Les parents surveillent les juvéniles et les défendent à ce stade.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cichlidé pastel est originaire de la côte atlantique de l'est du Honduras, du Nicaragua et du Costa Rica, en Amérique du Sud, ainsi que de la côte pacifique du Costa Rica.
 </t>
@@ -575,9 +591,11 @@
           <t>Habitat naturel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cichlidé pastel évolue dans des eaux claires et courantes, riches en oxygène. Selon les sources, la dureté va de 2 à 12°DH et le pH serait de 7,5 à 8,0[2] ou de 6,5 à 7,2[1],[3]. La température varie entre 23° et 28 °C.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cichlidé pastel évolue dans des eaux claires et courantes, riches en oxygène. Selon les sources, la dureté va de 2 à 12°DH et le pH serait de 7,5 à 8,0 ou de 6,5 à 7,2,. La température varie entre 23° et 28 °C.
 Dans la nature, le fond est recouvert de petits cailloux et de racines, avec pour seule végétation les plantes des berges qui retombent dans l'eau. Les cichlidés pastels vivent généralement en couple et sont agressifs envers leurs semblables.
 </t>
         </is>
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Amphilophus mangent les détritus au fond de l'eau. Le régime alimentaire naturel du cichlidé pastel est donc varié, et en captivité, il tolère bien la plupart des nourritures commerciales.
 </t>
@@ -638,9 +658,11 @@
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pacifique avec les autres espèces, à élever en couple. Disposer d'un bac d'au moins 1,25 à 1,50 m de façade, avec un espace dégagé puisque le cichlidé pastel nage beaucoup. Tient tête aux autres cichlidés de même ou plus grande taille[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pacifique avec les autres espèces, à élever en couple. Disposer d'un bac d'au moins 1,25 à 1,50 m de façade, avec un espace dégagé puisque le cichlidé pastel nage beaucoup. Tient tête aux autres cichlidés de même ou plus grande taille.
 </t>
         </is>
       </c>
